--- a/doors_detection_long_term/scripts/results/faster_rcnn_complete_metric_real_data_different_conditions.xlsx
+++ b/doors_detection_long_term/scripts/results/faster_rcnn_complete_metric_real_data_different_conditions.xlsx
@@ -606,7 +606,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>52</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -756,7 +756,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>57</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -1256,17 +1256,17 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>68</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1386,17 +1386,17 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -1516,17 +1516,17 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>74</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -1586,12 +1586,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1646,17 +1646,17 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>45</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1776,17 +1776,17 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>90</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>37</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>83</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>76</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2166,7 +2166,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>32</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2186,7 +2186,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -2241,17 +2241,17 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>41</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -2366,17 +2366,17 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2556,12 +2556,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -2626,12 +2626,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2701,12 +2701,12 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -2751,12 +2751,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>95</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>54</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2836,7 +2836,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>82</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2896,12 +2896,12 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>60</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>92</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -3206,17 +3206,17 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>71</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3226,7 +3226,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>90</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>64</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3356,7 +3356,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>108</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -3466,12 +3466,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>55</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -3531,27 +3531,27 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>101</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
           <t>12</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>9</t>
         </is>
       </c>
     </row>
@@ -3596,7 +3596,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>65</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -3661,12 +3661,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>94</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3726,17 +3726,17 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>83</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -3791,12 +3791,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>105</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3811,7 +3811,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -3921,17 +3921,17 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3941,7 +3941,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -3986,7 +3986,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -4051,7 +4051,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>102</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4116,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>79</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -4126,17 +4126,17 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>79</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -4246,12 +4246,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4261,12 +4261,12 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>69</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -4376,17 +4376,17 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4396,7 +4396,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -4456,12 +4456,12 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4506,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4521,12 +4521,12 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -4636,17 +4636,17 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>51</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -4711,7 +4711,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -4836,22 +4836,22 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
           <t>18</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>15</t>
         </is>
       </c>
     </row>
@@ -4896,17 +4896,17 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>66</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -4916,7 +4916,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -4961,17 +4961,17 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>90</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>39</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -5041,12 +5041,12 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -5096,12 +5096,12 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -5156,7 +5156,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>58</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -5221,12 +5221,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>94</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -5236,12 +5236,12 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -5286,17 +5286,17 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>73</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -5306,7 +5306,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -5371,7 +5371,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -5416,7 +5416,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>63</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -5481,7 +5481,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>98</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -5491,17 +5491,17 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -5546,17 +5546,17 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>69</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -5566,7 +5566,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -5631,7 +5631,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -5676,17 +5676,17 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>67</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -5696,7 +5696,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -5741,12 +5741,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>98</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5761,7 +5761,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -5806,27 +5806,27 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -5871,12 +5871,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -5936,12 +5936,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>77</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -6001,7 +6001,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>102</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -6011,7 +6011,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -6021,7 +6021,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -6066,27 +6066,27 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>89</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -6131,7 +6131,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>102</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6146,12 +6146,12 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -6196,7 +6196,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -6206,17 +6206,17 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>76</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6271,17 +6271,17 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -6331,12 +6331,12 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -6346,7 +6346,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -6391,7 +6391,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>73</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -6456,7 +6456,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>49</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -6466,7 +6466,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -6521,17 +6521,17 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>82</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -6541,7 +6541,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -6586,7 +6586,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -6596,7 +6596,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -6606,7 +6606,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -6661,7 +6661,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -6671,7 +6671,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -6716,7 +6716,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>49</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -6731,7 +6731,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -6781,17 +6781,17 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>89</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -6801,7 +6801,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -6846,7 +6846,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>44</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -6866,7 +6866,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -6926,12 +6926,12 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -6976,7 +6976,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>52</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -6986,7 +6986,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -7051,17 +7051,17 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -7106,7 +7106,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -7171,27 +7171,27 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7236,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -7256,7 +7256,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -7306,22 +7306,22 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>56</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -7386,7 +7386,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -7441,17 +7441,17 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -7496,7 +7496,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>58</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -7506,7 +7506,7 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -7561,12 +7561,12 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>99</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -7576,12 +7576,12 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -7626,7 +7626,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>67</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -7636,7 +7636,7 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
@@ -7646,7 +7646,7 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -7706,7 +7706,7 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
@@ -7756,17 +7756,17 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>76</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -7776,7 +7776,7 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -7821,7 +7821,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>93</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -7831,17 +7831,17 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -7886,17 +7886,17 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>90</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -7906,7 +7906,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -7951,12 +7951,12 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>90</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -7971,7 +7971,7 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -8016,27 +8016,27 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>77</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -8081,7 +8081,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>92</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -8091,7 +8091,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -8101,7 +8101,7 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -8146,7 +8146,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -8156,7 +8156,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -8166,7 +8166,7 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -8211,17 +8211,17 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>102</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -8231,7 +8231,7 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -8276,7 +8276,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>68</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -8286,7 +8286,7 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -8341,27 +8341,27 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>51</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -8406,7 +8406,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>88</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -8416,7 +8416,7 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>26</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
@@ -8426,7 +8426,7 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -8471,7 +8471,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>57</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -8481,17 +8481,17 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -8536,7 +8536,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>93</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -8546,7 +8546,7 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>19</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
@@ -8556,7 +8556,7 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -8601,27 +8601,27 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -8666,27 +8666,27 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>82</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>35</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -8731,7 +8731,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -8796,7 +8796,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>91</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -8806,7 +8806,7 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -8861,7 +8861,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>38</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -8881,7 +8881,7 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -8926,17 +8926,17 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>90</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
@@ -8946,7 +8946,7 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -8991,7 +8991,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>51</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -9006,12 +9006,12 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -9056,17 +9056,17 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>98</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
@@ -9076,7 +9076,7 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -9121,17 +9121,17 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>46</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -9186,17 +9186,17 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>99</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
@@ -9206,7 +9206,7 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -9251,7 +9251,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>48</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -9266,12 +9266,12 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -9316,17 +9316,17 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>106</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
@@ -9336,7 +9336,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>61</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -9401,7 +9401,7 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -9446,7 +9446,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>103</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -9456,7 +9456,7 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
@@ -9466,7 +9466,7 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -9511,12 +9511,12 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>64</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -9531,7 +9531,7 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -9576,7 +9576,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>107</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -9586,17 +9586,17 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -9641,7 +9641,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>62</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -9651,7 +9651,7 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
@@ -9661,7 +9661,7 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -9706,17 +9706,17 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>106</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
@@ -9726,7 +9726,7 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -9771,7 +9771,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>67</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -9781,7 +9781,7 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
@@ -9791,7 +9791,7 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -9836,7 +9836,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>98</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -9846,7 +9846,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
@@ -9856,7 +9856,7 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -9901,7 +9901,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>65</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -9911,17 +9911,17 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -9966,27 +9966,27 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>108</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -10031,12 +10031,12 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>69</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -10046,12 +10046,12 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -10096,7 +10096,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -10106,7 +10106,7 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -10161,7 +10161,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>60</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -10171,17 +10171,17 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -10226,27 +10226,27 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>111</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -10291,27 +10291,27 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>73</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -10356,7 +10356,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>106</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -10366,7 +10366,7 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
@@ -10376,7 +10376,7 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -10421,27 +10421,27 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>57</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -10486,17 +10486,17 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>77</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>24</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
@@ -10506,7 +10506,7 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>57</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -10561,17 +10561,17 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -10616,7 +10616,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>88</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -10626,7 +10626,7 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
@@ -10636,7 +10636,7 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>58</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -10691,17 +10691,17 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -10746,17 +10746,17 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>65</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
@@ -10766,7 +10766,7 @@
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -10811,7 +10811,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>55</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -10831,7 +10831,7 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -10876,17 +10876,17 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>76</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
@@ -10896,7 +10896,7 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -10941,19 +10941,19 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>43</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>0</t>
@@ -10961,7 +10961,7 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -11006,17 +11006,17 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>97</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
@@ -11026,7 +11026,7 @@
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>58</t>
         </is>
       </c>
     </row>
@@ -11071,7 +11071,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>58</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -11081,17 +11081,17 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -11136,7 +11136,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>91</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -11146,7 +11146,7 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
@@ -11156,7 +11156,7 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -11201,7 +11201,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>52</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -11216,12 +11216,12 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -11266,17 +11266,17 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>87</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
@@ -11286,7 +11286,7 @@
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -11331,7 +11331,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>49</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -11351,7 +11351,7 @@
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -11396,7 +11396,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>108</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -11406,17 +11406,17 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -11461,7 +11461,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>61</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -11471,7 +11471,7 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
@@ -11481,7 +11481,7 @@
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -11526,7 +11526,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>104</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -11536,7 +11536,7 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
@@ -11546,7 +11546,7 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -11591,7 +11591,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>68</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -11601,17 +11601,17 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -11656,7 +11656,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>89</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -11666,7 +11666,7 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
@@ -11676,7 +11676,7 @@
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11721,7 +11721,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>64</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -11731,7 +11731,7 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
@@ -11741,7 +11741,7 @@
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -11786,17 +11786,17 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>102</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
@@ -11806,7 +11806,7 @@
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -11851,7 +11851,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>66</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -11866,12 +11866,12 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -11916,7 +11916,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>106</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -11926,7 +11926,7 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
@@ -11936,7 +11936,7 @@
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -11981,7 +11981,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>71</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -11991,17 +11991,17 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -12046,7 +12046,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -12056,7 +12056,7 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
@@ -12066,7 +12066,7 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -12111,7 +12111,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>77</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -12126,12 +12126,12 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -12176,7 +12176,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>102</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -12186,7 +12186,7 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
@@ -12196,7 +12196,7 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -12241,27 +12241,27 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>73</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -12306,7 +12306,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>109</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -12316,17 +12316,17 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -12371,7 +12371,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>70</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -12381,17 +12381,17 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -12436,7 +12436,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>101</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -12446,7 +12446,7 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
@@ -12456,7 +12456,7 @@
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -12501,27 +12501,27 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>53</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -12566,7 +12566,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>77</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -12576,7 +12576,7 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
@@ -12586,7 +12586,7 @@
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -12631,27 +12631,27 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>58</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -12696,7 +12696,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>85</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -12706,7 +12706,7 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
@@ -12716,7 +12716,7 @@
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -12761,27 +12761,27 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>57</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -12826,7 +12826,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>63</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -12836,7 +12836,7 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>25</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
@@ -12846,7 +12846,7 @@
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -12896,22 +12896,22 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -12956,17 +12956,17 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>95</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
@@ -12976,7 +12976,7 @@
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -13021,17 +13021,17 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>63</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
@@ -13041,7 +13041,7 @@
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -13086,27 +13086,27 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>97</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -13151,19 +13151,19 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="L196" t="inlineStr">
         <is>
           <t>0</t>
@@ -13171,7 +13171,7 @@
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -13216,17 +13216,17 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
@@ -13236,7 +13236,7 @@
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -13281,19 +13281,19 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>48</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="L198" t="inlineStr">
         <is>
           <t>0</t>
@@ -13301,7 +13301,7 @@
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -13346,27 +13346,27 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>88</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -13411,7 +13411,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>59</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -13431,7 +13431,7 @@
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -13476,7 +13476,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -13486,7 +13486,7 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
@@ -13496,7 +13496,7 @@
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -13541,7 +13541,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>63</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -13551,17 +13551,17 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -13606,7 +13606,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>102</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -13616,7 +13616,7 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
@@ -13626,7 +13626,7 @@
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -13671,12 +13671,12 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>72</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -13691,7 +13691,7 @@
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -13736,7 +13736,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>104</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -13746,17 +13746,17 @@
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -13801,7 +13801,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>62</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -13821,7 +13821,7 @@
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -13866,7 +13866,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>101</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -13876,7 +13876,7 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
@@ -13886,7 +13886,7 @@
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -13931,7 +13931,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>64</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -13951,7 +13951,7 @@
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -13996,7 +13996,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>95</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -14006,7 +14006,7 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
@@ -14016,7 +14016,7 @@
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -14061,7 +14061,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>69</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -14071,17 +14071,17 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -14126,27 +14126,27 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>112</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -14191,7 +14191,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>75</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -14206,12 +14206,12 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -14256,7 +14256,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>105</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -14266,7 +14266,7 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
@@ -14276,7 +14276,7 @@
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -14321,27 +14321,27 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>63</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -14386,27 +14386,27 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>101</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -14451,27 +14451,27 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>73</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -14516,7 +14516,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>109</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -14526,7 +14526,7 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
     </row>

--- a/doors_detection_long_term/scripts/results/faster_rcnn_complete_metric_real_data_different_conditions.xlsx
+++ b/doors_detection_long_term/scripts/results/faster_rcnn_complete_metric_real_data_different_conditions.xlsx
@@ -536,22 +536,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>275</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -601,24 +601,24 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>105</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>0</t>
@@ -626,7 +626,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -666,17 +666,17 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>44</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>114</t>
         </is>
       </c>
     </row>
@@ -731,32 +731,32 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>217</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -796,17 +796,17 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>208</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -861,17 +861,17 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>102</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>66</t>
         </is>
       </c>
     </row>
@@ -926,19 +926,19 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>0</t>
@@ -951,7 +951,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>76</t>
         </is>
       </c>
     </row>
@@ -991,32 +991,32 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>253</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>51</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -1056,17 +1056,17 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>48</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -1121,22 +1121,22 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>139</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -1186,17 +1186,17 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1251,22 +1251,22 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>281</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>35</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -1316,17 +1316,17 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>58</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1336,12 +1336,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -1381,22 +1381,22 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>170</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>102</t>
         </is>
       </c>
     </row>
@@ -1446,17 +1446,17 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>18</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -1511,22 +1511,22 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>294</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>42</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -1576,17 +1576,17 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>307</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>59</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1596,12 +1596,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -1641,22 +1641,22 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>194</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>130</t>
         </is>
       </c>
     </row>
@@ -1706,17 +1706,17 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>59</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>67</t>
         </is>
       </c>
     </row>
@@ -1771,22 +1771,22 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>390</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -1836,17 +1836,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>309</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>79</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1856,12 +1856,12 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -1901,22 +1901,22 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>144</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -1966,17 +1966,17 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>58</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -2031,22 +2031,22 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>373</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>34</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -2096,22 +2096,22 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>292</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>41</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -2161,22 +2161,22 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>126</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2186,7 +2186,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>66</t>
         </is>
       </c>
     </row>
@@ -2226,32 +2226,32 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>348</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -2291,32 +2291,32 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>174</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>133</t>
         </is>
       </c>
     </row>
@@ -2356,22 +2356,22 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>297</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -2421,22 +2421,22 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -2486,24 +2486,24 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>303</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>0</t>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -2551,22 +2551,22 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>181</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>51</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>120</t>
         </is>
       </c>
     </row>
@@ -2616,32 +2616,32 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>352</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>63</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>55</t>
         </is>
       </c>
     </row>
@@ -2681,22 +2681,22 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>195</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -2746,32 +2746,32 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>376</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>55</t>
         </is>
       </c>
     </row>
@@ -2811,32 +2811,32 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>234</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>75</t>
         </is>
       </c>
     </row>
@@ -2876,32 +2876,32 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>347</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>56</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>57</t>
         </is>
       </c>
     </row>
@@ -2941,24 +2941,24 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>199</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>0</t>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -3006,32 +3006,32 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>378</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>54</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -3071,32 +3071,32 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>246</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>105</t>
         </is>
       </c>
     </row>
@@ -3136,32 +3136,32 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>379</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -3201,32 +3201,32 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>284</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>110</t>
         </is>
       </c>
     </row>
@@ -3266,32 +3266,32 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>359</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -3331,22 +3331,22 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>280</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3356,7 +3356,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -3396,32 +3396,32 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>55</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>63</t>
         </is>
       </c>
     </row>
@@ -3461,22 +3461,22 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>237</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -3526,17 +3526,17 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>396</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3546,12 +3546,12 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -3591,32 +3591,32 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>266</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -3656,17 +3656,17 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>374</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3676,12 +3676,12 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -3721,22 +3721,22 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>340</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>135</t>
         </is>
       </c>
     </row>
@@ -3786,32 +3786,32 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>402</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -3851,22 +3851,22 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>305</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -3916,32 +3916,32 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>393</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -3981,22 +3981,22 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>332</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>17</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>110</t>
         </is>
       </c>
     </row>
@@ -4046,17 +4046,17 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>384</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4066,12 +4066,12 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -4111,17 +4111,17 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>312</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>75</t>
         </is>
       </c>
     </row>
@@ -4176,32 +4176,32 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>302</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -4241,17 +4241,17 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>135</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4266,7 +4266,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>63</t>
         </is>
       </c>
     </row>
@@ -4306,22 +4306,22 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>297</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -4371,32 +4371,32 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>222</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>131</t>
         </is>
       </c>
     </row>
@@ -4436,22 +4436,22 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>292</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4461,7 +4461,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -4501,32 +4501,32 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>137</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>121</t>
         </is>
       </c>
     </row>
@@ -4566,32 +4566,32 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>293</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -4631,22 +4631,22 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>215</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>118</t>
         </is>
       </c>
     </row>
@@ -4696,32 +4696,32 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>374</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>73</t>
         </is>
       </c>
     </row>
@@ -4761,17 +4761,17 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>156</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>63</t>
         </is>
       </c>
     </row>
@@ -4826,32 +4826,32 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>389</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>73</t>
         </is>
       </c>
     </row>
@@ -4891,32 +4891,32 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>279</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>138</t>
         </is>
       </c>
     </row>
@@ -4956,32 +4956,32 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>358</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>66</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>59</t>
         </is>
       </c>
     </row>
@@ -5021,22 +5021,22 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>165</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -5046,7 +5046,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>69</t>
         </is>
       </c>
     </row>
@@ -5086,32 +5086,32 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>381</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>64</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>55</t>
         </is>
       </c>
     </row>
@@ -5151,22 +5151,22 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>233</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -5216,32 +5216,32 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>381</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -5281,32 +5281,32 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>299</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>144</t>
         </is>
       </c>
     </row>
@@ -5346,32 +5346,32 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>396</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>51</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -5411,22 +5411,22 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>248</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -5436,7 +5436,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>68</t>
         </is>
       </c>
     </row>
@@ -5476,22 +5476,22 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>393</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -5501,7 +5501,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>274</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -5566,7 +5566,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>127</t>
         </is>
       </c>
     </row>
@@ -5606,32 +5606,32 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>399</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -5671,22 +5671,22 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>265</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -5696,7 +5696,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -5736,32 +5736,32 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>387</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>62</t>
         </is>
       </c>
     </row>
@@ -5801,32 +5801,32 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>372</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>33</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>202</t>
         </is>
       </c>
     </row>
@@ -5866,17 +5866,17 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>397</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -5931,22 +5931,22 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>311</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -5956,7 +5956,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>63</t>
         </is>
       </c>
     </row>
@@ -5996,17 +5996,17 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>398</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -6016,12 +6016,12 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -6061,32 +6061,32 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>342</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>150</t>
         </is>
       </c>
     </row>
@@ -6126,32 +6126,32 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>401</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -6191,22 +6191,22 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>310</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -6216,7 +6216,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>75</t>
         </is>
       </c>
     </row>
@@ -6256,32 +6256,32 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>288</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -6321,32 +6321,32 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>193</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>129</t>
         </is>
       </c>
     </row>
@@ -6386,32 +6386,32 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>318</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -6451,22 +6451,22 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>209</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -6476,7 +6476,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>104</t>
         </is>
       </c>
     </row>
@@ -6516,32 +6516,32 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>337</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>59</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>123</t>
         </is>
       </c>
     </row>
@@ -6581,22 +6581,22 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>107</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -6606,7 +6606,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -6646,22 +6646,22 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>314</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -6671,7 +6671,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -6711,32 +6711,32 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>204</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>116</t>
         </is>
       </c>
     </row>
@@ -6776,32 +6776,32 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>354</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -6841,22 +6841,22 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>174</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -6866,7 +6866,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -6906,32 +6906,32 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>377</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>64</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -6971,32 +6971,32 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>202</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -7036,22 +7036,22 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>337</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>62</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -7061,7 +7061,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -7101,22 +7101,22 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>113</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -7126,7 +7126,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -7166,32 +7166,32 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>392</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -7231,17 +7231,17 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>223</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -7251,12 +7251,12 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -7296,32 +7296,32 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>416</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>64</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -7361,32 +7361,32 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>230</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>108</t>
         </is>
       </c>
     </row>
@@ -7426,17 +7426,17 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>398</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>54</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -7446,12 +7446,12 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -7491,22 +7491,22 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>241</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>69</t>
         </is>
       </c>
     </row>
@@ -7556,32 +7556,32 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>389</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -7621,32 +7621,32 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>279</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>115</t>
         </is>
       </c>
     </row>
@@ -7686,17 +7686,17 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>395</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -7706,12 +7706,12 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -7751,32 +7751,32 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>304</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>114</t>
         </is>
       </c>
     </row>
@@ -7816,32 +7816,32 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>377</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -7881,32 +7881,32 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>356</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>66</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>25</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>118</t>
         </is>
       </c>
     </row>
@@ -7946,32 +7946,32 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>369</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>55</t>
         </is>
       </c>
     </row>
@@ -8011,22 +8011,22 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>310</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>55</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -8036,7 +8036,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -8076,22 +8076,22 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>383</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -8101,7 +8101,7 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -8141,32 +8141,32 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>321</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>127</t>
         </is>
       </c>
     </row>
@@ -8206,17 +8206,17 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>395</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -8226,12 +8226,12 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -8271,32 +8271,32 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>298</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>76</t>
         </is>
       </c>
     </row>
@@ -8336,32 +8336,32 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>213</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>31</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>135</t>
         </is>
       </c>
     </row>
@@ -8401,22 +8401,22 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>376</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>124</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
@@ -8426,7 +8426,7 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>197</t>
         </is>
       </c>
     </row>
@@ -8466,32 +8466,32 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>233</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>41</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>17</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -8531,22 +8531,22 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>393</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>79</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
@@ -8556,7 +8556,7 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>130</t>
         </is>
       </c>
     </row>
@@ -8596,32 +8596,32 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>227</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>43</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>127</t>
         </is>
       </c>
     </row>
@@ -8661,32 +8661,32 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>370</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>104</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>165</t>
         </is>
       </c>
     </row>
@@ -8726,32 +8726,32 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>225</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -8791,32 +8791,32 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>382</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>49</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>110</t>
         </is>
       </c>
     </row>
@@ -8856,22 +8856,22 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>169</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
@@ -8881,7 +8881,7 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -8921,32 +8921,32 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>390</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>148</t>
         </is>
       </c>
     </row>
@@ -8986,32 +8986,32 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>219</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -9051,32 +9051,32 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>431</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>40</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>191</t>
         </is>
       </c>
     </row>
@@ -9116,32 +9116,32 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>209</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -9181,32 +9181,32 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>431</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>66</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>196</t>
         </is>
       </c>
     </row>
@@ -9246,32 +9246,32 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>215</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -9311,22 +9311,22 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>434</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>32</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
@@ -9336,7 +9336,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>122</t>
         </is>
       </c>
     </row>
@@ -9376,32 +9376,32 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>262</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>117</t>
         </is>
       </c>
     </row>
@@ -9441,22 +9441,22 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>452</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>37</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
@@ -9466,7 +9466,7 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -9506,32 +9506,32 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>283</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>120</t>
         </is>
       </c>
     </row>
@@ -9571,22 +9571,22 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>446</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>22</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
@@ -9596,7 +9596,7 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -9636,32 +9636,32 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>269</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>140</t>
         </is>
       </c>
     </row>
@@ -9701,32 +9701,32 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>454</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>47</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>121</t>
         </is>
       </c>
     </row>
@@ -9766,32 +9766,32 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>292</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>109</t>
         </is>
       </c>
     </row>
@@ -9831,22 +9831,22 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>423</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
@@ -9856,7 +9856,7 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -9896,32 +9896,32 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>285</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>73</t>
         </is>
       </c>
     </row>
@@ -9961,22 +9961,22 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>466</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -9986,7 +9986,7 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -10026,32 +10026,32 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -10091,22 +10091,22 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>428</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -10156,32 +10156,32 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>266</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -10221,32 +10221,32 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>475</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>38</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -10286,32 +10286,32 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>307</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -10351,32 +10351,32 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>450</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -10416,32 +10416,32 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>257</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>46</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>25</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>157</t>
         </is>
       </c>
     </row>
@@ -10481,22 +10481,22 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>326</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>107</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
@@ -10506,7 +10506,7 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>121</t>
         </is>
       </c>
     </row>
@@ -10546,32 +10546,32 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>254</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>117</t>
         </is>
       </c>
     </row>
@@ -10611,32 +10611,32 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>365</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>53</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>113</t>
         </is>
       </c>
     </row>
@@ -10676,32 +10676,32 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>23</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>162</t>
         </is>
       </c>
     </row>
@@ -10741,32 +10741,32 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>295</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>90</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>112</t>
         </is>
       </c>
     </row>
@@ -10806,32 +10806,32 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>216</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>68</t>
         </is>
       </c>
     </row>
@@ -10871,22 +10871,22 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>345</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>58</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
@@ -10896,7 +10896,7 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>106</t>
         </is>
       </c>
     </row>
@@ -10936,32 +10936,32 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>191</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -11001,32 +11001,32 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>404</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>37</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>227</t>
         </is>
       </c>
     </row>
@@ -11066,32 +11066,32 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>242</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>103</t>
         </is>
       </c>
     </row>
@@ -11131,32 +11131,32 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>395</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>31</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>108</t>
         </is>
       </c>
     </row>
@@ -11196,24 +11196,24 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>219</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>1</t>
@@ -11221,7 +11221,7 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -11261,22 +11261,22 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>380</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
@@ -11286,7 +11286,7 @@
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -11326,32 +11326,32 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>224</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -11391,32 +11391,32 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>463</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>36</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>177</t>
         </is>
       </c>
     </row>
@@ -11456,32 +11456,32 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>255</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -11521,32 +11521,32 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>447</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>31</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -11586,32 +11586,32 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>289</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -11651,22 +11651,22 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>395</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>19</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
@@ -11676,7 +11676,7 @@
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -11716,32 +11716,32 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>272</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>104</t>
         </is>
       </c>
     </row>
@@ -11781,32 +11781,32 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>459</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -11846,32 +11846,32 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>296</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -11911,22 +11911,22 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>444</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>37</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
@@ -11936,7 +11936,7 @@
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>58</t>
         </is>
       </c>
     </row>
@@ -11976,32 +11976,32 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>297</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>61</t>
         </is>
       </c>
     </row>
@@ -12041,32 +12041,32 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>434</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -12106,32 +12106,32 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>330</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>28</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -12171,32 +12171,32 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>446</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>20</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -12236,32 +12236,32 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>299</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>78</t>
         </is>
       </c>
     </row>
@@ -12301,22 +12301,22 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>460</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>22</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
@@ -12326,7 +12326,7 @@
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -12366,32 +12366,32 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>307</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>62</t>
         </is>
       </c>
     </row>
@@ -12431,22 +12431,22 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>440</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
@@ -12456,7 +12456,7 @@
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -12496,32 +12496,32 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>226</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>28</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>108</t>
         </is>
       </c>
     </row>
@@ -12561,32 +12561,32 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>321</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>48</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>173</t>
         </is>
       </c>
     </row>
@@ -12626,32 +12626,32 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>242</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>78</t>
         </is>
       </c>
     </row>
@@ -12691,22 +12691,22 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>356</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>46</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
@@ -12716,7 +12716,7 @@
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -12756,32 +12756,32 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>230</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>27</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>20</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>153</t>
         </is>
       </c>
     </row>
@@ -12821,32 +12821,32 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>295</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>113</t>
         </is>
       </c>
     </row>
@@ -12886,32 +12886,32 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>248</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>108</t>
         </is>
       </c>
     </row>
@@ -12951,32 +12951,32 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>408</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>51</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>154</t>
         </is>
       </c>
     </row>
@@ -13016,32 +13016,32 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>259</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>113</t>
         </is>
       </c>
     </row>
@@ -13081,32 +13081,32 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>420</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>53</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>169</t>
         </is>
       </c>
     </row>
@@ -13146,32 +13146,32 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>221</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>99</t>
         </is>
       </c>
     </row>
@@ -13211,32 +13211,32 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>418</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>29</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>132</t>
         </is>
       </c>
     </row>
@@ -13276,32 +13276,32 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>190</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -13341,32 +13341,32 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>366</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>41</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>244</t>
         </is>
       </c>
     </row>
@@ -13406,32 +13406,32 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>256</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -13471,32 +13471,32 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>427</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>33</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>116</t>
         </is>
       </c>
     </row>
@@ -13536,32 +13536,32 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>279</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>126</t>
         </is>
       </c>
     </row>
@@ -13601,32 +13601,32 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>448</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>32</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -13666,32 +13666,32 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>316</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -13731,32 +13731,32 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>467</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>28</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>71</t>
         </is>
       </c>
     </row>
@@ -13796,32 +13796,32 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>268</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -13861,32 +13861,32 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>433</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>34</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -13926,32 +13926,32 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>290</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -13991,22 +13991,22 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>430</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
@@ -14016,7 +14016,7 @@
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -14056,32 +14056,32 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>305</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>19</t>
         </is>
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>78</t>
         </is>
       </c>
     </row>
@@ -14121,32 +14121,32 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>482</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>57</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -14186,32 +14186,32 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>325</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>19</t>
         </is>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -14251,32 +14251,32 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>435</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>29</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -14316,32 +14316,32 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>276</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -14381,32 +14381,32 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>455</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>38</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>63</t>
         </is>
       </c>
     </row>
@@ -14446,32 +14446,32 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>311</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>21</t>
         </is>
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>75</t>
         </is>
       </c>
     </row>
@@ -14511,22 +14511,22 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>464</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>36</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>64</t>
         </is>
       </c>
     </row>
